--- a/data/ucod/united_states/comparable_ucod_estimates_ratios_applied.xlsx
+++ b/data/ucod/united_states/comparable_ucod_estimates_ratios_applied.xlsx
@@ -594,7 +594,7 @@
         <v>52415.89264949381</v>
       </c>
       <c r="J2">
-        <v>14429</v>
+        <v>11770.08469561614</v>
       </c>
       <c r="K2">
         <v>12301.24198676236</v>
@@ -629,7 +629,7 @@
         <v>53884.80517303463</v>
       </c>
       <c r="J3">
-        <v>16958</v>
+        <v>13833.05123489213</v>
       </c>
       <c r="K3">
         <v>12945.73496891789</v>
@@ -664,7 +664,7 @@
         <v>55208.6033545321</v>
       </c>
       <c r="J4">
-        <v>14915</v>
+        <v>12166.52666401793</v>
       </c>
       <c r="K4">
         <v>13152.85902147909</v>
@@ -699,7 +699,7 @@
         <v>59698.26340632218</v>
       </c>
       <c r="J5">
-        <v>17050</v>
+        <v>13908.09786265543</v>
       </c>
       <c r="K5">
         <v>14113.33660475124</v>
@@ -734,7 +734,7 @@
         <v>64712.11199977904</v>
       </c>
       <c r="J6">
-        <v>18228</v>
+        <v>14869.02098771162</v>
       </c>
       <c r="K6">
         <v>14688.46711349093</v>
@@ -772,7 +772,7 @@
         <v>65262.95419610685</v>
       </c>
       <c r="J7">
-        <v>17701</v>
+        <v>14439.13432650227</v>
       </c>
       <c r="K7">
         <v>15397.50573063065</v>
@@ -810,7 +810,7 @@
         <v>95976.8489171589</v>
       </c>
       <c r="J8">
-        <v>31745</v>
+        <v>25895.16519941328</v>
       </c>
       <c r="K8">
         <v>22541.8404924624</v>
@@ -848,7 +848,7 @@
         <v>103214.7969162189</v>
       </c>
       <c r="J9">
-        <v>32517</v>
+        <v>26524.90429325317</v>
       </c>
       <c r="K9">
         <v>23762.42735104396</v>
@@ -886,7 +886,7 @@
         <v>104100.2905544018</v>
       </c>
       <c r="J10">
-        <v>31717</v>
+        <v>25872.32492139837</v>
       </c>
       <c r="K10">
         <v>26605.32539340716</v>
@@ -924,7 +924,7 @@
         <v>121087.553125027</v>
       </c>
       <c r="J11">
-        <v>34811</v>
+        <v>28396.17564204681</v>
       </c>
       <c r="K11">
         <v>31524.28079981397</v>
@@ -962,7 +962,7 @@
         <v>133291.965442591</v>
       </c>
       <c r="J12">
-        <v>39281</v>
+        <v>32042.4628822855</v>
       </c>
       <c r="K12">
         <v>34867.16667138303</v>
@@ -1000,7 +1000,7 @@
         <v>150498.3802848735</v>
       </c>
       <c r="J13">
-        <v>44377</v>
+        <v>36199.39348100058</v>
       </c>
       <c r="K13">
         <v>38557.82827771764</v>
@@ -1038,7 +1038,7 @@
         <v>161873.5677907612</v>
       </c>
       <c r="J14">
-        <v>43307</v>
+        <v>35326.56857114478</v>
       </c>
       <c r="K14">
         <v>40697.46790905911</v>
@@ -1076,7 +1076,7 @@
         <v>171690.9972575713</v>
       </c>
       <c r="J15">
-        <v>47077</v>
+        <v>38401.84886101053</v>
       </c>
       <c r="K15">
         <v>43970.99130721233</v>
@@ -1114,7 +1114,7 @@
         <v>179154.0205626577</v>
       </c>
       <c r="J16">
-        <v>44831</v>
+        <v>36569.73227452818</v>
       </c>
       <c r="K16">
         <v>46228.16179628619</v>
@@ -1152,7 +1152,7 @@
         <v>186104.7013948156</v>
       </c>
       <c r="J17">
-        <v>42500</v>
+        <v>34668.27912978626</v>
       </c>
       <c r="K17">
         <v>48105.76541694559</v>
@@ -1190,7 +1190,7 @@
         <v>204540.1458686898</v>
       </c>
       <c r="J18">
-        <v>50566</v>
+        <v>41247.91064651227</v>
       </c>
       <c r="K18">
         <v>52283.89107256375</v>
@@ -1228,7 +1228,7 @@
         <v>218219.3937441636</v>
       </c>
       <c r="J19">
-        <v>55054</v>
+        <v>44908.8809226177</v>
       </c>
       <c r="K19">
         <v>54684.60334690096</v>
@@ -1266,7 +1266,7 @@
         <v>227968.7083157289</v>
       </c>
       <c r="J20">
-        <v>57830</v>
+        <v>47173.33134295386</v>
       </c>
       <c r="K20">
         <v>61509.10003687078</v>
@@ -1304,7 +1304,7 @@
         <v>217182.8627295683</v>
       </c>
       <c r="J21">
-        <v>52189</v>
+        <v>42571.8310471627</v>
       </c>
       <c r="K21">
         <v>64862.58295298948</v>
@@ -1342,7 +1342,7 @@
         <v>226289.5280720844</v>
       </c>
       <c r="J22">
-        <v>52255</v>
+        <v>42625.66884534073</v>
       </c>
       <c r="K22">
         <v>69127.41170037744</v>
@@ -1380,7 +1380,7 @@
         <v>219270.7323446817</v>
       </c>
       <c r="J23">
-        <v>49593</v>
+        <v>40454.21098549388</v>
       </c>
       <c r="K23">
         <v>72361.43702339109</v>
@@ -1418,7 +1418,7 @@
         <v>240886.8462747713</v>
       </c>
       <c r="J24">
-        <v>52711</v>
+        <v>42997.63908729796</v>
       </c>
       <c r="K24">
         <v>76950.92068107266</v>
@@ -1459,7 +1459,7 @@
         <v>255057.7060028818</v>
       </c>
       <c r="J25">
-        <v>58812</v>
+        <v>47974.37252190563</v>
       </c>
       <c r="K25">
         <v>82440.18975778751</v>
@@ -1497,7 +1497,7 @@
         <v>258344.9900777413</v>
       </c>
       <c r="J26">
-        <v>59099</v>
+        <v>48208.48537155853</v>
       </c>
       <c r="K26">
         <v>86506.56476179126</v>
@@ -1535,7 +1535,7 @@
         <v>287166.4753178607</v>
       </c>
       <c r="J27">
-        <v>61934</v>
+        <v>50521.06352056898</v>
       </c>
       <c r="K27">
         <v>90465.04258492592</v>
@@ -1573,7 +1573,7 @@
         <v>299054.0052966769</v>
       </c>
       <c r="J28">
-        <v>62587</v>
+        <v>51053.73143284547</v>
       </c>
       <c r="K28">
         <v>94579.58597324623</v>
@@ -1614,7 +1614,7 @@
         <v>290729.1804908841</v>
       </c>
       <c r="J29">
-        <v>60289</v>
+        <v>49179.19718719256</v>
       </c>
       <c r="K29">
         <v>98219.18909220528</v>
@@ -1655,7 +1655,7 @@
         <v>319375.9362171146</v>
       </c>
       <c r="J30">
-        <v>63349</v>
+        <v>51675.31328453717</v>
       </c>
       <c r="K30">
         <v>104795.1369191017</v>
@@ -1696,7 +1696,7 @@
         <v>311160.6875471505</v>
       </c>
       <c r="J31">
-        <v>63456</v>
+        <v>51762.59577552274</v>
       </c>
       <c r="K31">
         <v>106433.8253535509</v>
@@ -1737,7 +1737,7 @@
         <v>315931.6917314735</v>
       </c>
       <c r="J32">
-        <v>63031</v>
+        <v>51415.91298422488</v>
       </c>
       <c r="K32">
         <v>110003.1026314078</v>
@@ -1778,7 +1778,7 @@
         <v>305667.0731697952</v>
       </c>
       <c r="J33">
-        <v>60609</v>
+        <v>49440.22893593447</v>
       </c>
       <c r="K33">
         <v>112719.7995068616</v>
@@ -1816,7 +1816,7 @@
         <v>307766.7888536469</v>
       </c>
       <c r="J34">
-        <v>56743</v>
+        <v>46286.63912144615</v>
       </c>
       <c r="K34">
         <v>117150.3274962986</v>
@@ -1854,7 +1854,7 @@
         <v>308779.6277307657</v>
       </c>
       <c r="J35">
-        <v>59569</v>
+        <v>48591.87575252324</v>
       </c>
       <c r="K35">
         <v>123772.5169721388</v>
@@ -1895,7 +1895,7 @@
         <v>315650.3475989405</v>
       </c>
       <c r="J36">
-        <v>64876</v>
+        <v>52920.92416056501</v>
       </c>
       <c r="K36">
         <v>129503.5913381228</v>
@@ -1936,7 +1936,7 @@
         <v>306564.4128767163</v>
       </c>
       <c r="J37">
-        <v>63404</v>
+        <v>51720.17811635218</v>
       </c>
       <c r="K37">
         <v>132606.5986557954</v>
@@ -1977,7 +1977,7 @@
         <v>316482.5339278014</v>
       </c>
       <c r="J38">
-        <v>71963</v>
+        <v>58701.96167098372</v>
       </c>
       <c r="K38">
         <v>137388.7558507432</v>
@@ -2018,7 +2018,7 @@
         <v>304672.0033957837</v>
       </c>
       <c r="J39">
-        <v>65562</v>
+        <v>53480.5109719305</v>
       </c>
       <c r="K39">
         <v>139470.5934209048</v>
@@ -2059,7 +2059,7 @@
         <v>297691.7073917802</v>
       </c>
       <c r="J40">
-        <v>61223</v>
+        <v>49941.08360383303</v>
       </c>
       <c r="K40">
         <v>143747.9459482151</v>
@@ -2100,7 +2100,7 @@
         <v>321360.1527307685</v>
       </c>
       <c r="J41">
-        <v>60237</v>
+        <v>49136.77952802199</v>
       </c>
       <c r="K41">
         <v>148210.2650713009</v>
@@ -2141,7 +2141,7 @@
         <v>317921.8312794966</v>
       </c>
       <c r="J42">
-        <v>62384</v>
+        <v>50888.13941723731</v>
       </c>
       <c r="K42">
         <v>152534.8226152414</v>
@@ -2182,7 +2182,7 @@
         <v>296015.4886653203</v>
       </c>
       <c r="J43">
-        <v>61544</v>
+        <v>50202.93107678977</v>
       </c>
       <c r="K43">
         <v>154067.5406041943</v>
@@ -2223,7 +2223,7 @@
         <v>286991.7458039718</v>
       </c>
       <c r="J44">
-        <v>67580</v>
+        <v>55126.64243743424</v>
       </c>
       <c r="K44">
         <v>157414.2799465087</v>
@@ -2264,7 +2264,7 @@
         <v>293980.9263595289</v>
       </c>
       <c r="J45">
-        <v>75215</v>
+        <v>61354.69681757349</v>
       </c>
       <c r="K45">
         <v>160735.9717289784</v>
@@ -2305,7 +2305,7 @@
         <v>271532.6261005785</v>
       </c>
       <c r="J46">
-        <v>70955</v>
+        <v>57879.71166244667</v>
       </c>
       <c r="K46">
         <v>164900.610236988</v>
@@ -2346,7 +2346,7 @@
         <v>260844.5105815083</v>
       </c>
       <c r="J47">
-        <v>67842</v>
+        <v>55340.36218171669</v>
       </c>
       <c r="K47">
         <v>170963.0830870699</v>
@@ -2387,7 +2387,7 @@
         <v>241958.9154955813</v>
       </c>
       <c r="J48">
-        <v>64622</v>
+        <v>52713.73021000111</v>
       </c>
       <c r="K48">
         <v>175337.7357506996</v>
@@ -2428,7 +2428,7 @@
         <v>237774.2917138007</v>
       </c>
       <c r="J49">
-        <v>66882</v>
+        <v>54557.26693549092</v>
       </c>
       <c r="K49">
         <v>182857.7839102005</v>
@@ -2469,7 +2469,7 @@
         <v>229153.3151895521</v>
       </c>
       <c r="J50">
-        <v>65742</v>
+        <v>53627.34133059783</v>
       </c>
       <c r="K50">
         <v>189823.8956500609</v>
@@ -2510,7 +2510,7 @@
         <v>51204.63212100955</v>
       </c>
       <c r="J51">
-        <v>58405</v>
+        <v>51785.1877896462</v>
       </c>
       <c r="K51">
         <v>207048.789460701</v>
@@ -2554,7 +2554,7 @@
         <v>48720.90637556015</v>
       </c>
       <c r="J52">
-        <v>56486</v>
+        <v>50083.69347634543</v>
       </c>
       <c r="K52">
         <v>211472.2527537715</v>
@@ -2598,7 +2598,7 @@
         <v>44458.2959745862</v>
       </c>
       <c r="J53">
-        <v>58875</v>
+        <v>52201.91646460782</v>
       </c>
       <c r="K53">
         <v>216281.0631213744</v>
@@ -2642,7 +2642,7 @@
         <v>40981.47479991498</v>
       </c>
       <c r="J54">
-        <v>58378</v>
+        <v>51761.24805725478</v>
       </c>
       <c r="K54">
         <v>224060.2571884984</v>
@@ -2683,7 +2683,7 @@
         <v>177343.258889433</v>
       </c>
       <c r="J55">
-        <v>57077</v>
+        <v>50607.70761869079</v>
       </c>
       <c r="K55">
         <v>229882.6106427623</v>
@@ -2727,7 +2727,7 @@
         <v>33707.98859464029</v>
       </c>
       <c r="J56">
-        <v>54486</v>
+        <v>48310.37996587043</v>
       </c>
       <c r="K56">
         <v>235492.220399628</v>
@@ -2768,7 +2768,7 @@
         <v>181878.1495260521</v>
       </c>
       <c r="J57">
-        <v>55017</v>
+        <v>48781.19470290154</v>
       </c>
       <c r="K57">
         <v>241525.3105352767</v>
@@ -2812,7 +2812,7 @@
         <v>185745.6529869918</v>
       </c>
       <c r="J58">
-        <v>55152</v>
+        <v>48900.8933648586</v>
       </c>
       <c r="K58">
         <v>248224.7299873046</v>
@@ -2856,7 +2856,7 @@
         <v>196047.8550228302</v>
       </c>
       <c r="J59">
-        <v>56605</v>
+        <v>50189.20563021869</v>
       </c>
       <c r="K59">
         <v>254071.1676337267</v>
@@ -2900,7 +2900,7 @@
         <v>954.606</v>
       </c>
       <c r="G60">
-        <v>642690.6016694872</v>
+        <v>643482.2628663507</v>
       </c>
       <c r="H60">
         <v>200180.6422750416</v>
@@ -2909,7 +2909,7 @@
         <v>27427.9075197309</v>
       </c>
       <c r="J60">
-        <v>54287</v>
+        <v>50667.30028587176</v>
       </c>
       <c r="K60">
         <v>264183.1123584035</v>
@@ -2995,7 +2995,7 @@
         <v>973.2564</v>
       </c>
       <c r="G61">
-        <v>662370.8981824039</v>
+        <v>663103.4353151979</v>
       </c>
       <c r="H61">
         <v>202188.025923955</v>
@@ -3004,7 +3004,7 @@
         <v>26487.19029640068</v>
       </c>
       <c r="J61">
-        <v>55669</v>
+        <v>51957.15253401726</v>
       </c>
       <c r="K61">
         <v>271278.6235161455</v>
@@ -3090,7 +3090,7 @@
         <v>959.514</v>
       </c>
       <c r="G62">
-        <v>664181.6979073818</v>
+        <v>664785.9658842284</v>
       </c>
       <c r="H62">
         <v>201522.7275970258</v>
@@ -3099,7 +3099,7 @@
         <v>25511.6316944286</v>
       </c>
       <c r="J62">
-        <v>54158</v>
+        <v>50546.90163173951</v>
       </c>
       <c r="K62">
         <v>277233.7846663932</v>
@@ -3185,7 +3185,7 @@
         <v>1005.4038</v>
       </c>
       <c r="G63">
-        <v>688907.581921828</v>
+        <v>689455.7321429474</v>
       </c>
       <c r="H63">
         <v>206222.6372849083</v>
@@ -3194,7 +3194,7 @@
         <v>25056.75813993765</v>
       </c>
       <c r="J63">
-        <v>56335</v>
+        <v>52578.74558558376</v>
       </c>
       <c r="K63">
         <v>282362.8255889896</v>
@@ -3280,7 +3280,7 @@
         <v>1011.7842</v>
       </c>
       <c r="G64">
-        <v>708772.2653464193</v>
+        <v>709318.4113619771</v>
       </c>
       <c r="H64">
         <v>210102.6738383491</v>
@@ -3289,7 +3289,7 @@
         <v>24538.00872460329</v>
       </c>
       <c r="J64">
-        <v>57105</v>
+        <v>53297.40421877626</v>
       </c>
       <c r="K64">
         <v>289255.6078565104</v>
@@ -3375,7 +3375,7 @@
         <v>1003.4406</v>
       </c>
       <c r="G65">
-        <v>700827.5944999198</v>
+        <v>701332.6543014632</v>
       </c>
       <c r="H65">
         <v>207014.3109612228</v>
@@ -3384,7 +3384,7 @@
         <v>24028.93747000278</v>
       </c>
       <c r="J65">
-        <v>56913</v>
+        <v>53118.20622192826</v>
       </c>
       <c r="K65">
         <v>293528.1192179222</v>
@@ -3470,7 +3470,7 @@
         <v>969.2073</v>
       </c>
       <c r="G66">
-        <v>713103.3535652098</v>
+        <v>713584.362900013</v>
       </c>
       <c r="H66">
         <v>209988.8315814649</v>
@@ -3479,7 +3479,7 @@
         <v>23072.7351894984</v>
       </c>
       <c r="J66">
-        <v>58841</v>
+        <v>54917.65277361027</v>
       </c>
       <c r="K66">
         <v>301648.4249157324</v>
@@ -3565,7 +3565,7 @@
         <v>926.6304</v>
       </c>
       <c r="G67">
-        <v>728078.7775220827</v>
+        <v>728530.7258762416</v>
       </c>
       <c r="H67">
         <v>213940.9334167865</v>
@@ -3574,7 +3574,7 @@
         <v>22337.1949737258</v>
       </c>
       <c r="J67">
-        <v>60522</v>
+        <v>56486.56856893051</v>
       </c>
       <c r="K67">
         <v>307880.3110011321</v>
@@ -3660,7 +3660,7 @@
         <v>920.7408</v>
       </c>
       <c r="G68">
-        <v>722411.8862964325</v>
+        <v>722784.668530905</v>
       </c>
       <c r="H68">
         <v>211165.8978521856</v>
@@ -3669,7 +3669,7 @@
         <v>21177.75131781057</v>
       </c>
       <c r="J68">
-        <v>60245</v>
+        <v>56228.03812556126</v>
       </c>
       <c r="K68">
         <v>315226.1923382972</v>
@@ -3764,7 +3764,7 @@
         <v>20337.02428185</v>
       </c>
       <c r="J69">
-        <v>60002</v>
+        <v>60541.88179546001</v>
       </c>
       <c r="K69">
         <v>322345.41176646</v>
@@ -3782,7 +3782,7 @@
         <v>34524.03073856</v>
       </c>
       <c r="P69">
-        <v>10968.74707968</v>
+        <v>15015.74710272</v>
       </c>
       <c r="Q69">
         <v>30451.0918173</v>
@@ -3859,7 +3859,7 @@
         <v>20568.54877695</v>
       </c>
       <c r="J70">
-        <v>60594</v>
+        <v>61139.20845162001</v>
       </c>
       <c r="K70">
         <v>326944.60716456</v>
@@ -3877,7 +3877,7 @@
         <v>34004.64812646</v>
       </c>
       <c r="P70">
-        <v>11108.23713792</v>
+        <v>15207.99301632</v>
       </c>
       <c r="Q70">
         <v>31163.7702846</v>
@@ -3954,7 +3954,7 @@
         <v>19404.3737214</v>
       </c>
       <c r="J71">
-        <v>60231</v>
+        <v>60772.94227563001</v>
       </c>
       <c r="K71">
         <v>334895.29544682</v>
@@ -3972,7 +3972,7 @@
         <v>32591.51602938</v>
       </c>
       <c r="P71">
-        <v>11005.40792832</v>
+        <v>15092.64546816</v>
       </c>
       <c r="Q71">
         <v>32786.3398551</v>
@@ -4049,7 +4049,7 @@
         <v>18460.8021942</v>
       </c>
       <c r="J72">
-        <v>59252</v>
+        <v>59785.13349796001</v>
       </c>
       <c r="K72">
         <v>341615.4839262</v>
@@ -4067,7 +4067,7 @@
         <v>32427.9876426</v>
       </c>
       <c r="P72">
-        <v>10410.78684672</v>
+        <v>14312.93180928</v>
       </c>
       <c r="Q72">
         <v>33220.4163447</v>
@@ -4144,7 +4144,7 @@
         <v>18679.2215292</v>
       </c>
       <c r="J73">
-        <v>59368</v>
+        <v>59902.17723464001</v>
       </c>
       <c r="K73">
         <v>349953.7391694</v>
@@ -4162,7 +4162,7 @@
         <v>33423.55668916</v>
       </c>
       <c r="P73">
-        <v>9673.09903872</v>
+        <v>13194.32884224</v>
       </c>
       <c r="Q73">
         <v>34020.7448724</v>
@@ -4239,7 +4239,7 @@
         <v>18220.5409257</v>
       </c>
       <c r="J74">
-        <v>60538</v>
+        <v>61082.70457874001</v>
       </c>
       <c r="K74">
         <v>355482.89288892</v>
@@ -4257,7 +4257,7 @@
         <v>33557.25914376</v>
       </c>
       <c r="P74">
-        <v>9357.458073599999</v>
+        <v>12627.42693888</v>
       </c>
       <c r="Q74">
         <v>34827.3341187</v>
@@ -4334,7 +4334,7 @@
         <v>17639.5454946</v>
       </c>
       <c r="J75">
-        <v>58449</v>
+        <v>58974.90832077001</v>
       </c>
       <c r="K75">
         <v>364984.86093912</v>
@@ -4352,7 +4352,7 @@
         <v>33161.29418206</v>
       </c>
       <c r="P75">
-        <v>9095.467130879999</v>
+        <v>12166.03674624</v>
       </c>
       <c r="Q75">
         <v>34793.9436195</v>
@@ -4429,7 +4429,7 @@
         <v>17641.72968795</v>
       </c>
       <c r="J76">
-        <v>57441</v>
+        <v>57957.83860893001</v>
       </c>
       <c r="K76">
         <v>370315.67751936</v>
@@ -4447,7 +4447,7 @@
         <v>29716.91325548</v>
       </c>
       <c r="P76">
-        <v>8905.903718399999</v>
+        <v>11921.03497728</v>
       </c>
       <c r="Q76">
         <v>33030.5078805</v>
@@ -4524,7 +4524,7 @@
         <v>18674.8531425</v>
       </c>
       <c r="J77">
-        <v>53948</v>
+        <v>54433.40953804001</v>
       </c>
       <c r="K77">
         <v>382133.94001758</v>
@@ -4542,7 +4542,7 @@
         <v>30213.66929834</v>
       </c>
       <c r="P77">
-        <v>8633.182771199999</v>
+        <v>11691.234048</v>
       </c>
       <c r="Q77">
         <v>32845.8166818</v>
@@ -4619,7 +4619,7 @@
         <v>18620.24830875</v>
       </c>
       <c r="J78">
-        <v>53906</v>
+        <v>54391.03163338001</v>
       </c>
       <c r="K78">
         <v>391604.5384182</v>
@@ -4637,7 +4637,7 @@
         <v>29577.03991836</v>
       </c>
       <c r="P78">
-        <v>8625.13526784</v>
+        <v>11669.77403904</v>
       </c>
       <c r="Q78">
         <v>32220.7882749</v>
@@ -4714,7 +4714,7 @@
         <v>19391.2685613</v>
       </c>
       <c r="J79">
-        <v>53438</v>
+        <v>53918.82069574001</v>
       </c>
       <c r="K79">
         <v>402060.75097014</v>
@@ -4732,7 +4732,7 @@
         <v>29775.53663942</v>
       </c>
       <c r="P79">
-        <v>8571.485245439999</v>
+        <v>11665.30320384</v>
       </c>
       <c r="Q79">
         <v>31413.1555755</v>
@@ -4809,7 +4809,7 @@
         <v>19781.658</v>
       </c>
       <c r="J80">
-        <v>52095</v>
+        <v>53413.00350000001</v>
       </c>
       <c r="K80">
         <v>407503.8657</v>
@@ -4827,7 +4827,7 @@
         <v>27829.527</v>
       </c>
       <c r="P80">
-        <v>8414.162</v>
+        <v>12197.1764</v>
       </c>
       <c r="Q80">
         <v>30714.2639</v>
@@ -4904,7 +4904,7 @@
         <v>21064.779</v>
       </c>
       <c r="J81">
-        <v>52919</v>
+        <v>54257.8507</v>
       </c>
       <c r="K81">
         <v>420850.8489</v>
@@ -4922,7 +4922,7 @@
         <v>28449.5706</v>
       </c>
       <c r="P81">
-        <v>8655.0784</v>
+        <v>12547.356</v>
       </c>
       <c r="Q81">
         <v>31613.223</v>
@@ -4999,7 +4999,7 @@
         <v>21958.695</v>
       </c>
       <c r="J82">
-        <v>49651</v>
+        <v>50907.17030000001</v>
       </c>
       <c r="K82">
         <v>426595.7845</v>
@@ -5017,7 +5017,7 @@
         <v>26908.1538</v>
       </c>
       <c r="P82">
-        <v>8264.596799999999</v>
+        <v>12100.4516</v>
       </c>
       <c r="Q82">
         <v>30121.8385</v>
@@ -5094,7 +5094,7 @@
         <v>22914.1305</v>
       </c>
       <c r="J83">
-        <v>48836</v>
+        <v>50071.5508</v>
       </c>
       <c r="K83">
         <v>438547.9151</v>
@@ -5112,7 +5112,7 @@
         <v>25937.5248</v>
       </c>
       <c r="P83">
-        <v>8409.683999999999</v>
+        <v>12242.852</v>
       </c>
       <c r="Q83">
         <v>28545.8218</v>
@@ -5189,7 +5189,7 @@
         <v>23889.654</v>
       </c>
       <c r="J84">
-        <v>48321</v>
+        <v>49543.52130000001</v>
       </c>
       <c r="K84">
         <v>447558.9455</v>
@@ -5207,7 +5207,7 @@
         <v>25475.8724</v>
       </c>
       <c r="P84">
-        <v>8152.6468</v>
+        <v>11873.8648</v>
       </c>
       <c r="Q84">
         <v>28178.3942</v>
@@ -5284,7 +5284,7 @@
         <v>25285.77</v>
       </c>
       <c r="J85">
-        <v>46905</v>
+        <v>48091.69650000001</v>
       </c>
       <c r="K85">
         <v>458149.5304</v>
@@ -5302,7 +5302,7 @@
         <v>23633.126</v>
       </c>
       <c r="P85">
-        <v>7956.510399999999</v>
+        <v>11735.9424</v>
       </c>
       <c r="Q85">
         <v>28240.3202</v>
@@ -5379,7 +5379,7 @@
         <v>26827.524</v>
       </c>
       <c r="J86">
-        <v>47824</v>
+        <v>49033.9472</v>
       </c>
       <c r="K86">
         <v>466271.3675000001</v>
@@ -5397,7 +5397,7 @@
         <v>23112.5598</v>
       </c>
       <c r="P86">
-        <v>7828.4396</v>
+        <v>11520.1028</v>
       </c>
       <c r="Q86">
         <v>27672.6652</v>
@@ -5474,7 +5474,7 @@
         <v>27353.5785</v>
       </c>
       <c r="J87">
-        <v>47683</v>
+        <v>48889.37990000001</v>
       </c>
       <c r="K87">
         <v>474140.8796</v>
@@ -5492,7 +5492,7 @@
         <v>21942.976</v>
       </c>
       <c r="P87">
-        <v>7676.187599999999</v>
+        <v>11381.2848</v>
       </c>
       <c r="Q87">
         <v>27034.8274</v>
@@ -5569,7 +5569,7 @@
         <v>27716.418</v>
       </c>
       <c r="J88">
-        <v>46962</v>
+        <v>48150.13860000001</v>
       </c>
       <c r="K88">
         <v>481752.0109000001</v>
@@ -5587,7 +5587,7 @@
         <v>21711.184</v>
       </c>
       <c r="P88">
-        <v>7634.99</v>
+        <v>11092.9016</v>
       </c>
       <c r="Q88">
         <v>27081.2719</v>
@@ -5664,7 +5664,7 @@
         <v>28144.5435</v>
       </c>
       <c r="J89">
-        <v>48255</v>
+        <v>49475.8515</v>
       </c>
       <c r="K89">
         <v>489982.8524</v>
@@ -5682,7 +5682,7 @@
         <v>21336.4536</v>
       </c>
       <c r="P89">
-        <v>7877.6976</v>
+        <v>11485.1744</v>
       </c>
       <c r="Q89">
         <v>27310.3981</v>
@@ -5759,7 +5759,7 @@
         <v>26546.292</v>
       </c>
       <c r="J90">
-        <v>47711</v>
+        <v>48918.0883</v>
       </c>
       <c r="K90">
         <v>501241.5939</v>
@@ -5777,7 +5777,7 @@
         <v>18709.4776</v>
       </c>
       <c r="P90">
-        <v>7949.3456</v>
+        <v>11609.6628</v>
       </c>
       <c r="Q90">
         <v>27587.0009</v>
@@ -5854,7 +5854,7 @@
         <v>26088.0345</v>
       </c>
       <c r="J91">
-        <v>45457</v>
+        <v>46607.0621</v>
       </c>
       <c r="K91">
         <v>510476.6889000001</v>
@@ -5872,7 +5872,7 @@
         <v>17438.4848</v>
       </c>
       <c r="P91">
-        <v>8014.724399999999</v>
+        <v>11790.574</v>
       </c>
       <c r="Q91">
         <v>26685.9776</v>
@@ -5949,7 +5949,7 @@
         <v>26832.546</v>
       </c>
       <c r="J92">
-        <v>46086</v>
+        <v>47251.97580000001</v>
       </c>
       <c r="K92">
         <v>519924.7462000001</v>
@@ -5967,7 +5967,7 @@
         <v>16835.8256</v>
       </c>
       <c r="P92">
-        <v>7643.050399999999</v>
+        <v>11350.8344</v>
       </c>
       <c r="Q92">
         <v>26290.6833</v>
@@ -6044,7 +6044,7 @@
         <v>27844.479</v>
       </c>
       <c r="J93">
-        <v>46057</v>
+        <v>47222.2421</v>
       </c>
       <c r="K93">
         <v>525907.8766000001</v>
@@ -6062,7 +6062,7 @@
         <v>16260.2088</v>
       </c>
       <c r="P93">
-        <v>7661.857999999999</v>
+        <v>11253.214</v>
       </c>
       <c r="Q93">
         <v>26118.3226</v>
@@ -6139,7 +6139,7 @@
         <v>29300.859</v>
       </c>
       <c r="J94">
-        <v>48872</v>
+        <v>50108.4616</v>
       </c>
       <c r="K94">
         <v>535305.4689000001</v>
@@ -6157,7 +6157,7 @@
         <v>16690.9556</v>
       </c>
       <c r="P94">
-        <v>7531.100399999999</v>
+        <v>11201.2692</v>
       </c>
       <c r="Q94">
         <v>26056.3966</v>
@@ -6234,7 +6234,7 @@
         <v>28865.2005</v>
       </c>
       <c r="J95">
-        <v>49198</v>
+        <v>50442.70940000001</v>
       </c>
       <c r="K95">
         <v>539758.5005000001</v>
@@ -6252,7 +6252,7 @@
         <v>16538.3592</v>
       </c>
       <c r="P95">
-        <v>7368.9968</v>
+        <v>10829.5952</v>
       </c>
       <c r="Q95">
         <v>26263.8487</v>
@@ -6329,7 +6329,7 @@
         <v>29736.5175</v>
       </c>
       <c r="J96">
-        <v>50201</v>
+        <v>51471.08530000001</v>
       </c>
       <c r="K96">
         <v>543885.5282000001</v>
@@ -6347,7 +6347,7 @@
         <v>16154.9366</v>
       </c>
       <c r="P96">
-        <v>7242.7172</v>
+        <v>10701.5244</v>
       </c>
       <c r="Q96">
         <v>26072.9102</v>
@@ -6424,7 +6424,7 @@
         <v>30536.271</v>
       </c>
       <c r="J97">
-        <v>51658</v>
+        <v>52964.9474</v>
       </c>
       <c r="K97">
         <v>545047.2325</v>
@@ -6442,7 +6442,7 @@
         <v>16176.1842</v>
       </c>
       <c r="P97">
-        <v>7288.3928</v>
+        <v>10647.7884</v>
       </c>
       <c r="Q97">
         <v>25889.1964</v>
@@ -6519,7 +6519,7 @@
         <v>31818.1365</v>
       </c>
       <c r="J98">
-        <v>52502</v>
+        <v>53830.3006</v>
       </c>
       <c r="K98">
         <v>545079.5301000001</v>
@@ -6537,7 +6537,7 @@
         <v>15509.7822</v>
       </c>
       <c r="P98">
-        <v>7305.4092</v>
+        <v>10712.2716</v>
       </c>
       <c r="Q98">
         <v>26024.4015</v>
@@ -6614,7 +6614,7 @@
         <v>32892.8445</v>
       </c>
       <c r="J99">
-        <v>54687</v>
+        <v>56070.5811</v>
       </c>
       <c r="K99">
         <v>547067.8511000001</v>
@@ -6632,7 +6632,7 @@
         <v>14764.1846</v>
       </c>
       <c r="P99">
-        <v>7276.75</v>
+        <v>10735.5572</v>
       </c>
       <c r="Q99">
         <v>26046.0756</v>
@@ -6709,7 +6709,7 @@
         <v>35554</v>
       </c>
       <c r="J100">
-        <v>73555</v>
+        <v>55755</v>
       </c>
       <c r="K100">
         <v>550373</v>
@@ -6721,7 +6721,7 @@
         <v>68462</v>
       </c>
       <c r="N100">
-        <v>44408</v>
+        <v>42733</v>
       </c>
       <c r="O100">
         <v>14985</v>
@@ -6733,7 +6733,7 @@
         <v>26298</v>
       </c>
       <c r="R100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S100">
         <v>2</v>
@@ -6760,7 +6760,7 @@
         <v>30</v>
       </c>
       <c r="AA100">
-        <v>39750</v>
+        <v>16974</v>
       </c>
       <c r="AB100">
         <v>124274</v>
@@ -6769,10 +6769,10 @@
         <v>4611</v>
       </c>
       <c r="AD100">
-        <v>31330</v>
+        <v>29260</v>
       </c>
       <c r="AE100">
-        <v>19311</v>
+        <v>17353</v>
       </c>
     </row>
     <row r="101" spans="1:31">
@@ -6804,7 +6804,7 @@
         <v>37284</v>
       </c>
       <c r="J101">
-        <v>73001</v>
+        <v>54912</v>
       </c>
       <c r="K101">
         <v>553679</v>
@@ -6816,7 +6816,7 @@
         <v>69366</v>
       </c>
       <c r="N101">
-        <v>44765</v>
+        <v>43710</v>
       </c>
       <c r="O101">
         <v>14396</v>
@@ -6828,7 +6828,7 @@
         <v>26602</v>
       </c>
       <c r="R101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S101">
         <v>1</v>
@@ -6855,7 +6855,7 @@
         <v>37</v>
       </c>
       <c r="AA101">
-        <v>41923</v>
+        <v>18087</v>
       </c>
       <c r="AB101">
         <v>122118</v>
@@ -6864,10 +6864,10 @@
         <v>4565</v>
       </c>
       <c r="AD101">
-        <v>31474</v>
+        <v>29416</v>
       </c>
       <c r="AE101">
-        <v>19113</v>
+        <v>17191</v>
       </c>
     </row>
     <row r="102" spans="1:31">
@@ -6899,7 +6899,7 @@
         <v>39511</v>
       </c>
       <c r="J102">
-        <v>75666</v>
+        <v>58134</v>
       </c>
       <c r="K102">
         <v>554371</v>
@@ -6911,7 +6911,7 @@
         <v>71439</v>
       </c>
       <c r="N102">
-        <v>44980</v>
+        <v>44091</v>
       </c>
       <c r="O102">
         <v>14092</v>
@@ -6950,7 +6950,7 @@
         <v>65</v>
       </c>
       <c r="AA102">
-        <v>44028</v>
+        <v>19260</v>
       </c>
       <c r="AB102">
         <v>123105</v>
@@ -6959,10 +6959,10 @@
         <v>4498</v>
       </c>
       <c r="AD102">
-        <v>32973</v>
+        <v>30672</v>
       </c>
       <c r="AE102">
-        <v>20007</v>
+        <v>17838</v>
       </c>
     </row>
     <row r="103" spans="1:31">
@@ -6994,7 +6994,7 @@
         <v>41009</v>
       </c>
       <c r="J103">
-        <v>78679</v>
+        <v>61751</v>
       </c>
       <c r="K103">
         <v>557821</v>
@@ -7006,7 +7006,7 @@
         <v>73315</v>
       </c>
       <c r="N103">
-        <v>46263</v>
+        <v>45720</v>
       </c>
       <c r="O103">
         <v>13827</v>
@@ -7045,7 +7045,7 @@
         <v>53</v>
       </c>
       <c r="AA103">
-        <v>46906</v>
+        <v>20270</v>
       </c>
       <c r="AB103">
         <v>124906</v>
@@ -7054,10 +7054,10 @@
         <v>4084</v>
       </c>
       <c r="AD103">
-        <v>34063</v>
+        <v>31700</v>
       </c>
       <c r="AE103">
-        <v>20322</v>
+        <v>18089</v>
       </c>
     </row>
     <row r="104" spans="1:31">
@@ -7089,7 +7089,7 @@
         <v>42497</v>
       </c>
       <c r="J104">
-        <v>81553</v>
+        <v>64940</v>
       </c>
       <c r="K104">
         <v>557531</v>
@@ -7101,7 +7101,7 @@
         <v>74289</v>
       </c>
       <c r="N104">
-        <v>46008</v>
+        <v>45104</v>
       </c>
       <c r="O104">
         <v>13057</v>
@@ -7140,7 +7140,7 @@
         <v>41</v>
       </c>
       <c r="AA104">
-        <v>50386</v>
+        <v>21956</v>
       </c>
       <c r="AB104">
         <v>126480</v>
@@ -7149,10 +7149,10 @@
         <v>3920</v>
       </c>
       <c r="AD104">
-        <v>33917</v>
+        <v>31531</v>
       </c>
       <c r="AE104">
-        <v>20474</v>
+        <v>18246</v>
       </c>
     </row>
     <row r="105" spans="1:31">
@@ -7184,7 +7184,7 @@
         <v>42512</v>
       </c>
       <c r="J105">
-        <v>84910</v>
+        <v>67477</v>
       </c>
       <c r="K105">
         <v>554470</v>
@@ -7196,7 +7196,7 @@
         <v>73221</v>
       </c>
       <c r="N105">
-        <v>46003</v>
+        <v>45277</v>
       </c>
       <c r="O105">
         <v>11864</v>
@@ -7235,7 +7235,7 @@
         <v>33</v>
       </c>
       <c r="AA105">
-        <v>51762</v>
+        <v>23095</v>
       </c>
       <c r="AB105">
         <v>122096</v>
@@ -7244,10 +7244,10 @@
         <v>3692</v>
       </c>
       <c r="AD105">
-        <v>34892</v>
+        <v>32488</v>
       </c>
       <c r="AE105">
-        <v>20112</v>
+        <v>17829</v>
       </c>
     </row>
     <row r="106" spans="1:31">
@@ -7279,7 +7279,7 @@
         <v>43944</v>
       </c>
       <c r="J106">
-        <v>91216</v>
+        <v>73029</v>
       </c>
       <c r="K106">
         <v>559962</v>
@@ -7291,7 +7291,7 @@
         <v>75207</v>
       </c>
       <c r="N106">
-        <v>46423</v>
+        <v>45711</v>
       </c>
       <c r="O106">
         <v>11848</v>
@@ -7330,7 +7330,7 @@
         <v>29</v>
       </c>
       <c r="AA106">
-        <v>54289</v>
+        <v>24926</v>
       </c>
       <c r="AB106">
         <v>131060</v>
@@ -7339,10 +7339,10 @@
         <v>3488</v>
       </c>
       <c r="AD106">
-        <v>35183</v>
+        <v>32708</v>
       </c>
       <c r="AE106">
-        <v>20945</v>
+        <v>18632</v>
       </c>
     </row>
     <row r="107" spans="1:31">
@@ -7374,7 +7374,7 @@
         <v>45386</v>
       </c>
       <c r="J107">
-        <v>95553</v>
+        <v>76806</v>
       </c>
       <c r="K107">
         <v>560537</v>
@@ -7386,7 +7386,7 @@
         <v>72525</v>
       </c>
       <c r="N107">
-        <v>46297</v>
+        <v>45694</v>
       </c>
       <c r="O107">
         <v>8660</v>
@@ -7425,7 +7425,7 @@
         <v>25</v>
       </c>
       <c r="AA107">
-        <v>53734</v>
+        <v>23858</v>
       </c>
       <c r="AB107">
         <v>124724</v>
@@ -7434,10 +7434,10 @@
         <v>3338</v>
       </c>
       <c r="AD107">
-        <v>35915</v>
+        <v>33400</v>
       </c>
       <c r="AE107">
-        <v>21473</v>
+        <v>19117</v>
       </c>
     </row>
     <row r="108" spans="1:31">
@@ -7469,7 +7469,7 @@
         <v>46495</v>
       </c>
       <c r="J108">
-        <v>99400</v>
+        <v>80273</v>
       </c>
       <c r="K108">
         <v>563569</v>
@@ -7481,7 +7481,7 @@
         <v>71459</v>
       </c>
       <c r="N108">
-        <v>44852</v>
+        <v>44299</v>
       </c>
       <c r="O108">
         <v>8239</v>
@@ -7493,7 +7493,7 @@
         <v>29253</v>
       </c>
       <c r="R108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S108">
         <v>0</v>
@@ -7520,7 +7520,7 @@
         <v>32</v>
       </c>
       <c r="AA108">
-        <v>54862</v>
+        <v>23980</v>
       </c>
       <c r="AB108">
         <v>128076</v>
@@ -7529,10 +7529,10 @@
         <v>3055</v>
       </c>
       <c r="AD108">
-        <v>37346</v>
+        <v>34691</v>
       </c>
       <c r="AE108">
-        <v>21388</v>
+        <v>18903</v>
       </c>
     </row>
     <row r="109" spans="1:31">
@@ -7564,7 +7564,7 @@
         <v>48277</v>
       </c>
       <c r="J109">
-        <v>100876</v>
+        <v>82654</v>
       </c>
       <c r="K109">
         <v>566215</v>
@@ -7576,7 +7576,7 @@
         <v>70649</v>
       </c>
       <c r="N109">
-        <v>40677</v>
+        <v>40129</v>
       </c>
       <c r="O109">
         <v>7836</v>
@@ -7615,7 +7615,7 @@
         <v>28</v>
       </c>
       <c r="AA109">
-        <v>58282</v>
+        <v>25767</v>
       </c>
       <c r="AB109">
         <v>141246</v>
@@ -7624,10 +7624,10 @@
         <v>3083</v>
       </c>
       <c r="AD109">
-        <v>38850</v>
+        <v>36132</v>
       </c>
       <c r="AE109">
-        <v>20844</v>
+        <v>18309</v>
       </c>
     </row>
     <row r="110" spans="1:31">
@@ -7659,7 +7659,7 @@
         <v>48959</v>
       </c>
       <c r="J110">
-        <v>99171</v>
+        <v>82319</v>
       </c>
       <c r="K110">
         <v>568226</v>
@@ -7671,7 +7671,7 @@
         <v>68776</v>
       </c>
       <c r="N110">
-        <v>36993</v>
+        <v>36473</v>
       </c>
       <c r="O110">
         <v>7380</v>
@@ -7683,7 +7683,7 @@
         <v>30627</v>
       </c>
       <c r="R110">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S110">
         <v>2</v>
@@ -7710,7 +7710,7 @@
         <v>39</v>
       </c>
       <c r="AA110">
-        <v>59009</v>
+        <v>25755</v>
       </c>
       <c r="AB110">
         <v>137473</v>
@@ -7719,10 +7719,10 @@
         <v>2965</v>
       </c>
       <c r="AD110">
-        <v>39577</v>
+        <v>37006</v>
       </c>
       <c r="AE110">
-        <v>19677</v>
+        <v>17285</v>
       </c>
     </row>
     <row r="111" spans="1:31">
@@ -7754,7 +7754,7 @@
         <v>50508</v>
       </c>
       <c r="J111">
-        <v>104396</v>
+        <v>86043</v>
       </c>
       <c r="K111">
         <v>575388</v>
@@ -7766,7 +7766,7 @@
         <v>69154</v>
       </c>
       <c r="N111">
-        <v>36020</v>
+        <v>35590</v>
       </c>
       <c r="O111">
         <v>7233</v>
@@ -7805,7 +7805,7 @@
         <v>29</v>
       </c>
       <c r="AA111">
-        <v>60449</v>
+        <v>26652</v>
       </c>
       <c r="AB111">
         <v>138224</v>
@@ -7814,10 +7814,10 @@
         <v>2983</v>
       </c>
       <c r="AD111">
-        <v>40905</v>
+        <v>38441</v>
       </c>
       <c r="AE111">
-        <v>18995</v>
+        <v>16726</v>
       </c>
     </row>
     <row r="112" spans="1:31">
@@ -7849,7 +7849,7 @@
         <v>45635</v>
       </c>
       <c r="J112">
-        <v>109102</v>
+        <v>91666</v>
       </c>
       <c r="K112">
         <v>577320</v>
@@ -7861,7 +7861,7 @@
         <v>73916</v>
       </c>
       <c r="N112">
-        <v>35931</v>
+        <v>35519</v>
       </c>
       <c r="O112">
         <v>6949</v>
@@ -7900,7 +7900,7 @@
         <v>37</v>
       </c>
       <c r="AA112">
-        <v>61617</v>
+        <v>27873</v>
       </c>
       <c r="AB112">
         <v>143106</v>
@@ -7909,10 +7909,10 @@
         <v>3005</v>
       </c>
       <c r="AD112">
-        <v>42259</v>
+        <v>39624</v>
       </c>
       <c r="AE112">
-        <v>19296</v>
+        <v>16815</v>
       </c>
     </row>
     <row r="113" spans="1:31">
@@ -7944,7 +7944,7 @@
         <v>45671</v>
       </c>
       <c r="J113">
-        <v>111260</v>
+        <v>91936</v>
       </c>
       <c r="K113">
         <v>583320</v>
@@ -7956,7 +7956,7 @@
         <v>74010</v>
       </c>
       <c r="N113">
-        <v>37063</v>
+        <v>36679</v>
       </c>
       <c r="O113">
         <v>6950</v>
@@ -7995,7 +7995,7 @@
         <v>19</v>
       </c>
       <c r="AA113">
-        <v>64330</v>
+        <v>29127</v>
       </c>
       <c r="AB113">
         <v>143656</v>
@@ -8004,10 +8004,10 @@
         <v>2900</v>
       </c>
       <c r="AD113">
-        <v>43477</v>
+        <v>40685</v>
       </c>
       <c r="AE113">
-        <v>19933</v>
+        <v>17322</v>
       </c>
     </row>
     <row r="114" spans="1:31">
@@ -8039,7 +8039,7 @@
         <v>47151</v>
       </c>
       <c r="J114">
-        <v>115921</v>
+        <v>95719</v>
       </c>
       <c r="K114">
         <v>585536</v>
@@ -8051,7 +8051,7 @@
         <v>75663</v>
       </c>
       <c r="N114">
-        <v>36000</v>
+        <v>35650</v>
       </c>
       <c r="O114">
         <v>6690</v>
@@ -8063,7 +8063,7 @@
         <v>36513</v>
       </c>
       <c r="R114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S114">
         <v>0</v>
@@ -8090,7 +8090,7 @@
         <v>29</v>
       </c>
       <c r="AA114">
-        <v>68042</v>
+        <v>30789</v>
       </c>
       <c r="AB114">
         <v>149392</v>
@@ -8099,10 +8099,10 @@
         <v>2995</v>
       </c>
       <c r="AD114">
-        <v>44197</v>
+        <v>41246</v>
       </c>
       <c r="AE114">
-        <v>19481</v>
+        <v>16701</v>
       </c>
     </row>
     <row r="115" spans="1:31">
@@ -8134,7 +8134,7 @@
         <v>48179</v>
       </c>
       <c r="J115">
-        <v>122002</v>
+        <v>101169</v>
       </c>
       <c r="K115">
         <v>592466</v>
@@ -8146,7 +8146,7 @@
         <v>76590</v>
       </c>
       <c r="N115">
-        <v>36055</v>
+        <v>35688</v>
       </c>
       <c r="O115">
         <v>6363</v>
@@ -8185,7 +8185,7 @@
         <v>23</v>
       </c>
       <c r="AA115">
-        <v>69087</v>
+        <v>30233</v>
       </c>
       <c r="AB115">
         <v>147299</v>
@@ -8194,10 +8194,10 @@
         <v>3045</v>
       </c>
       <c r="AD115">
-        <v>45451</v>
+        <v>42877</v>
       </c>
       <c r="AE115">
-        <v>18799</v>
+        <v>16407</v>
       </c>
     </row>
     <row r="116" spans="1:31">
@@ -8229,7 +8229,7 @@
         <v>50016</v>
       </c>
       <c r="J116">
-        <v>132039</v>
+        <v>109441</v>
       </c>
       <c r="K116">
         <v>596730</v>
@@ -8241,7 +8241,7 @@
         <v>79622</v>
       </c>
       <c r="N116">
-        <v>38514</v>
+        <v>38093</v>
       </c>
       <c r="O116">
         <v>6095</v>
@@ -8253,7 +8253,7 @@
         <v>40428</v>
       </c>
       <c r="R116">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S116">
         <v>0</v>
@@ -8280,7 +8280,7 @@
         <v>19</v>
       </c>
       <c r="AA116">
-        <v>74078</v>
+        <v>32234</v>
       </c>
       <c r="AB116">
         <v>155305</v>
@@ -8289,10 +8289,10 @@
         <v>3067</v>
       </c>
       <c r="AD116">
-        <v>46999</v>
+        <v>44324</v>
       </c>
       <c r="AE116">
-        <v>20869</v>
+        <v>18415</v>
       </c>
     </row>
     <row r="117" spans="1:31">
@@ -8324,7 +8324,7 @@
         <v>50090</v>
       </c>
       <c r="J117">
-        <v>145216</v>
+        <v>121768</v>
       </c>
       <c r="K117">
         <v>598817</v>
@@ -8336,7 +8336,7 @@
         <v>80144</v>
       </c>
       <c r="N117">
-        <v>41070</v>
+        <v>40651</v>
       </c>
       <c r="O117">
         <v>5737</v>
@@ -8375,7 +8375,7 @@
         <v>31</v>
       </c>
       <c r="AA117">
-        <v>77165</v>
+        <v>33267</v>
       </c>
       <c r="AB117">
         <v>154861</v>
@@ -8384,10 +8384,10 @@
         <v>3215</v>
       </c>
       <c r="AD117">
-        <v>48051</v>
+        <v>45076</v>
       </c>
       <c r="AE117">
-        <v>22798</v>
+        <v>19994</v>
       </c>
     </row>
     <row r="118" spans="1:31">
@@ -8419,7 +8419,7 @@
         <v>50693</v>
       </c>
       <c r="J118">
-        <v>153526</v>
+        <v>130570</v>
       </c>
       <c r="K118">
         <v>600032</v>
@@ -8431,7 +8431,7 @@
         <v>83711</v>
       </c>
       <c r="N118">
-        <v>40971</v>
+        <v>40537</v>
       </c>
       <c r="O118">
         <v>5550</v>
@@ -8470,7 +8470,7 @@
         <v>31</v>
       </c>
       <c r="AA118">
-        <v>83087</v>
+        <v>35345</v>
       </c>
       <c r="AB118">
         <v>160498</v>
@@ -8479,10 +8479,10 @@
         <v>3359</v>
       </c>
       <c r="AD118">
-        <v>50409</v>
+        <v>47353</v>
       </c>
       <c r="AE118">
-        <v>23107</v>
+        <v>20225</v>
       </c>
     </row>
   </sheetData>
